--- a/Saldos a favor periodo anterior.xlsx
+++ b/Saldos a favor periodo anterior.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glorenzo\PycharmProjects\CalculadoraIVA\venv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B47B887-C2E7-4073-B554-1D27C4DCFDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2FB4FC-43E5-4E26-A86C-1068B6438E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Contribuyente</t>
   </si>
   <si>
-    <t>Saldo</t>
-  </si>
-  <si>
     <t>Concaro Hugo Oscar</t>
   </si>
   <si>
@@ -55,13 +52,22 @@
   </si>
   <si>
     <t>Cuit</t>
+  </si>
+  <si>
+    <t>Saldo 1er P</t>
+  </si>
+  <si>
+    <t>Saldo 2do P</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +80,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -93,18 +106,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -383,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,60 +411,76 @@
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>20047388962</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>20047388962</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>30708185759</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C3" s="3">
+        <v>250</v>
+      </c>
+      <c r="D3">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>30708185759</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>30715653229</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C4" s="3">
+        <v>300</v>
+      </c>
+      <c r="D4">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>30715653229</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>20183536665</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>20183536665</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
+      <c r="C5" s="3">
+        <v>500</v>
+      </c>
+      <c r="D5">
         <v>0</v>
       </c>
     </row>
